--- a/results/report_segmentation_comparison_results.xlsx
+++ b/results/report_segmentation_comparison_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\edge_detection_and_contours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2BDCC-5D1B-417E-A3BB-3814E2E192E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979C2DF-B942-422B-8031-93A66B9B36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Marching Cubes</t>
-  </si>
-  <si>
     <t>Edge Detection</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>IOU [Filtered] - Edge Detection</t>
   </si>
   <si>
-    <t>Dice [Filtered] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>IOU [Filtered] - Marching Cubes</t>
-  </si>
-  <si>
     <t>Dice [Filtered] - Otsu</t>
   </si>
   <si>
@@ -73,12 +64,6 @@
     <t>IOU [All] - Edge Detection</t>
   </si>
   <si>
-    <t>Dice [All] - Marching Cubes</t>
-  </si>
-  <si>
-    <t>IOU [All] - Marching Cubes</t>
-  </si>
-  <si>
     <t>Dice [All] - Otsu</t>
   </si>
   <si>
@@ -236,6 +221,21 @@
   </si>
   <si>
     <t>64.3% [25.3%]</t>
+  </si>
+  <si>
+    <t>Watershed</t>
+  </si>
+  <si>
+    <t>Dice [All] - Watershed</t>
+  </si>
+  <si>
+    <t>IOU [All] - Watershed</t>
+  </si>
+  <si>
+    <t>Dice [Filtered] - Watershed</t>
+  </si>
+  <si>
+    <t>IOU [Filtered] - Watershed</t>
   </si>
 </sst>
 </file>
@@ -383,6 +383,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,15 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +709,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,50 +731,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -782,22 +782,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -805,22 +805,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -828,22 +828,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -851,22 +851,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -888,50 +888,50 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -939,22 +939,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -962,22 +962,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -985,22 +985,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -1008,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1047,44 +1047,44 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="L22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="M22" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1092,40 +1092,40 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
+      <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
+      <c r="K23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" t="s">
+      <c r="L23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
         <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1133,40 +1133,40 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="H24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="E24" t="s">
+      <c r="J24" t="s">
         <v>39</v>
       </c>
-      <c r="F24" t="s">
+      <c r="K24" t="s">
         <v>40</v>
       </c>
-      <c r="G24" t="s">
+      <c r="L24" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s">
+      <c r="M24" t="s">
         <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1174,40 +1174,40 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="H25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
+      <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
+      <c r="K25" t="s">
         <v>52</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>53</v>
       </c>
-      <c r="H25" t="s">
+      <c r="M25" t="s">
         <v>54</v>
-      </c>
-      <c r="I25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1215,40 +1215,40 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="J26" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="K26" t="s">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
+      <c r="L26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" t="s">
+      <c r="M26" t="s">
         <v>66</v>
-      </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/results/report_segmentation_comparison_results.xlsx
+++ b/results/report_segmentation_comparison_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979C2DF-B942-422B-8031-93A66B9B36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B619B46D-48B3-45E9-B0D7-C4D7B9AA939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="133">
   <si>
     <t>Diagnosis</t>
   </si>
@@ -236,13 +236,392 @@
   </si>
   <si>
     <t>IOU [Filtered] - Watershed</t>
+  </si>
+  <si>
+    <r>
+      <t>Diagnosis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Filtered masks [segmentation only] </t>
+  </si>
+  <si>
+    <t>Average Dice Coefficient Score </t>
+  </si>
+  <si>
+    <t>Average IoU </t>
+  </si>
+  <si>
+    <t>Edge Detection </t>
+  </si>
+  <si>
+    <t>Watershed </t>
+  </si>
+  <si>
+    <t>Otsu </t>
+  </si>
+  <si>
+    <t>Heart failure with infarct </t>
+  </si>
+  <si>
+    <r>
+      <t>89.2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>88.4% </t>
+  </si>
+  <si>
+    <t>83.8% </t>
+  </si>
+  <si>
+    <r>
+      <t>81.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>79.9% </t>
+  </si>
+  <si>
+    <t>73.5% </t>
+  </si>
+  <si>
+    <t>Heart failure without infarct </t>
+  </si>
+  <si>
+    <t>84.2% </t>
+  </si>
+  <si>
+    <r>
+      <t>85.8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>58.7% </t>
+  </si>
+  <si>
+    <t>75.0% </t>
+  </si>
+  <si>
+    <r>
+      <t>76.9%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>47.3% </t>
+  </si>
+  <si>
+    <t>Hypertrophy </t>
+  </si>
+  <si>
+    <t>72.3% </t>
+  </si>
+  <si>
+    <r>
+      <t>78.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>55.7% </t>
+  </si>
+  <si>
+    <t>62.6% </t>
+  </si>
+  <si>
+    <r>
+      <t>67.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>40.7% </t>
+  </si>
+  <si>
+    <t>Normal </t>
+  </si>
+  <si>
+    <t>74.2% </t>
+  </si>
+  <si>
+    <t>57.3% </t>
+  </si>
+  <si>
+    <r>
+      <t>75.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>64.1% </t>
+  </si>
+  <si>
+    <t>45.4% </t>
+  </si>
+  <si>
+    <r>
+      <t>64.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diagnosis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>All results [segmentation + empty masks] </t>
+  </si>
+  <si>
+    <t>78.8% </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">82.5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>74.0% </t>
+  </si>
+  <si>
+    <t>71.5% </t>
+  </si>
+  <si>
+    <r>
+      <t>74.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>64.9% </t>
+  </si>
+  <si>
+    <t>68.2% </t>
+  </si>
+  <si>
+    <r>
+      <t>68.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>37.5% </t>
+  </si>
+  <si>
+    <t>60.8% </t>
+  </si>
+  <si>
+    <r>
+      <t>61.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>30.2% </t>
+  </si>
+  <si>
+    <r>
+      <t>48.7%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>38.3% </t>
+  </si>
+  <si>
+    <t>11.7% </t>
+  </si>
+  <si>
+    <r>
+      <t>42.2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>32.9% </t>
+  </si>
+  <si>
+    <t>8.5% </t>
+  </si>
+  <si>
+    <r>
+      <t>58.9%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>47.2% </t>
+  </si>
+  <si>
+    <t>55.2% </t>
+  </si>
+  <si>
+    <r>
+      <t>50.9%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>37.4% </t>
+  </si>
+  <si>
+    <t>47.3%  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +664,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +750,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -353,11 +810,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +949,102 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +1372,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -743,7 +1385,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>7</v>
@@ -755,8 +1397,19 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I2" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -776,8 +1429,19 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I3" s="40"/>
+      <c r="J3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -799,8 +1463,27 @@
       <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I4" s="41"/>
+      <c r="J4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -822,8 +1505,29 @@
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -845,8 +1549,29 @@
       <c r="G6" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -868,8 +1593,29 @@
       <c r="G7" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -877,8 +1623,29 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -887,7 +1654,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
@@ -899,8 +1666,19 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -912,8 +1690,19 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I11" s="24"/>
+      <c r="J11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -933,8 +1722,27 @@
       <c r="G12" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I12" s="25"/>
+      <c r="J12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -956,8 +1764,29 @@
       <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
@@ -979,8 +1808,29 @@
       <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1852,29 @@
       <c r="G15" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="I15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
@@ -1024,6 +1895,27 @@
       </c>
       <c r="G16" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1252,7 +2144,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A10:A12"/>
@@ -1263,5 +2163,6 @@
     <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>